--- a/Planning/Skills Audit/Individual/Dikson Rajbanshi.xlsx
+++ b/Planning/Skills Audit/Individual/Dikson Rajbanshi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course TBC\project_management_2020\Planning\Skills Audit\Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBEBF05-89E4-4FD6-9B05-230EA809E6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B346E073-8A72-4F18-A320-15FACF463AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,12 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -565,6 +559,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,6 +572,22 @@
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -595,7 +611,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
@@ -606,8 +622,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -621,26 +635,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -657,22 +655,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45D78C1B-CDBD-47EB-AFCE-31500F61883B}" name="Table1" displayName="Table1" ref="A6:H23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45D78C1B-CDBD-47EB-AFCE-31500F61883B}" name="Table1" displayName="Table1" ref="A6:H23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A6:H23" xr:uid="{4C83C43E-3A42-4C4B-A7EB-22E1EE14728A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H23">
     <sortCondition ref="G6:G23"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DC90F694-3AE5-4656-BDA7-EC9B8404D6F2}" name="NO#" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{DC90F694-3AE5-4656-BDA7-EC9B8404D6F2}" name="NO#" dataDxfId="9">
       <calculatedColumnFormula>ROW(Table1[[#This Row],[NO'#]])-6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD9FF9AF-DE78-4F95-A708-43C88EEA8B68}" name="Skill Required" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CDB4C9EF-0F82-4AAB-940E-9584ABC18389}" name="Skill Level ( 1- 5)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{70E4718A-43DD-4A2D-A3BE-CD830C6458EE}" name="Traning Action" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FF250782-13EE-4E99-99AA-E40386DC4B10}" name="Training Objective" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6D60123D-D848-4791-988E-3FE369368041}" name="Time (hrs)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B42C8131-6AC0-4FC1-A48A-B20F52079063}" name="Training Completion Deadline" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{CA49C307-CD04-4DC4-A6B3-B6BEA214FF9E}" name="Traning for?" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{FD9FF9AF-DE78-4F95-A708-43C88EEA8B68}" name="Skill Required" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CDB4C9EF-0F82-4AAB-940E-9584ABC18389}" name="Skill Level ( 1- 5)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{70E4718A-43DD-4A2D-A3BE-CD830C6458EE}" name="Traning Action" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{FF250782-13EE-4E99-99AA-E40386DC4B10}" name="Training Objective" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6D60123D-D848-4791-988E-3FE369368041}" name="Time (hrs)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B42C8131-6AC0-4FC1-A48A-B20F52079063}" name="Training Completion Deadline" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{CA49C307-CD04-4DC4-A6B3-B6BEA214FF9E}" name="Traning for?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1005,43 +1003,43 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="A1:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1050,17 +1048,17 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
@@ -1068,8 +1066,8 @@
         <v>44</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1078,32 +1076,32 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1220,7 +1218,7 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5">
@@ -1262,7 +1260,7 @@
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>43895</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1289,7 +1287,7 @@
       <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>43895</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1316,7 +1314,7 @@
       <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>43897</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -1343,7 +1341,7 @@
       <c r="F15" s="5">
         <v>3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>43897</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1355,22 +1353,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>4</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>3</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>43899</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -1382,22 +1380,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>43900</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -1409,22 +1407,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>2</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>43901</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1436,22 +1434,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>5</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>1</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>43902</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1463,22 +1461,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>5</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>43902</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1490,22 +1488,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>5</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>43903</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1532,7 +1530,7 @@
       <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>43903</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -1544,22 +1542,22 @@
         <f>ROW(Table1[[#This Row],[NO'#]])-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>5</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>1</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>43905</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -1597,7 +1595,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J28" s="17"/>
+      <c r="J28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
